--- a/csv/1stRound/h3k4me3/h3k4me3_total_width_height_grid_change.xlsx
+++ b/csv/1stRound/h3k4me3/h3k4me3_total_width_height_grid_change.xlsx
@@ -98,7 +98,21 @@
             <a:ln w="47625">
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>h3k4me3_total_width_height_grid!$A$2:$A$28</c:f>
@@ -289,36 +303,79 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2099973064"/>
-        <c:axId val="-2012067560"/>
+        <c:axId val="-2075397048"/>
+        <c:axId val="-2075394088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2099973064"/>
+        <c:axId val="-2075397048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Peak</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Height Cutoffs</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2012067560"/>
+        <c:crossAx val="-2075394088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2012067560"/>
+        <c:axId val="-2075394088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Best negative logP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099973064"/>
+        <c:crossAx val="-2075397048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -347,8 +404,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
